--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LATEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C034B03C-88B7-41B4-B45D-BDD0FF2D8255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9CD2E6-39AB-41F6-A7DD-9FFEC1887E11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4299A6D6-C790-4A43-9439-6D6512330405}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>Bluegill</t>
   </si>
   <si>
-    <t>Mutant</t>
-  </si>
-  <si>
     <t>Pike</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Transition Hours</t>
+  </si>
+  <si>
+    <t>Mutated</t>
   </si>
 </sst>
 </file>
@@ -286,52 +286,52 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -659,7 +659,7 @@
   <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,282 +675,282 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="H2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2</v>
+      </c>
+      <c r="I4" s="8">
+        <v>12</v>
+      </c>
+      <c r="J4" s="8">
         <v>10</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="K4" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
+        <v>48</v>
+      </c>
+      <c r="E5" s="7">
+        <v>72</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="8">
+        <v>4</v>
+      </c>
+      <c r="I5" s="8">
+        <v>30</v>
+      </c>
+      <c r="J5" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="K5" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>120</v>
+      </c>
+      <c r="E6" s="8">
+        <v>180</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8">
+        <v>4</v>
+      </c>
+      <c r="I6" s="8">
+        <v>70</v>
+      </c>
+      <c r="J6" s="8">
+        <v>50</v>
+      </c>
+      <c r="K6" s="8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>120</v>
+      </c>
+      <c r="E7" s="8">
+        <v>180</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="15">
+      <c r="C8" s="8">
         <v>2</v>
       </c>
-      <c r="I4" s="15">
-        <v>12</v>
-      </c>
-      <c r="J4" s="15">
-        <v>10</v>
-      </c>
-      <c r="K4" s="15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14">
-        <v>48</v>
-      </c>
-      <c r="E5" s="14">
-        <v>72</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="D8" s="8">
+        <v>120</v>
+      </c>
+      <c r="E8" s="8">
+        <v>180</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="15">
-        <v>30</v>
-      </c>
-      <c r="J5" s="15">
-        <v>22.5</v>
-      </c>
-      <c r="K5" s="15">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="C9" s="9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9">
+        <v>240</v>
+      </c>
+      <c r="E9" s="9">
+        <v>320</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9">
+        <v>240</v>
+      </c>
+      <c r="E10" s="9">
+        <v>320</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="15">
-        <v>120</v>
-      </c>
-      <c r="E6" s="15">
-        <v>180</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="C11" s="9">
         <v>4</v>
       </c>
-      <c r="I6" s="15">
-        <v>70</v>
-      </c>
-      <c r="J6" s="15">
-        <v>50</v>
-      </c>
-      <c r="K6" s="15">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="15">
-        <v>2</v>
-      </c>
-      <c r="D7" s="15">
-        <v>120</v>
-      </c>
-      <c r="E7" s="15">
-        <v>180</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="D11" s="9">
+        <v>240</v>
+      </c>
+      <c r="E11" s="9">
+        <v>320</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="15">
-        <v>2</v>
-      </c>
-      <c r="D8" s="15">
-        <v>120</v>
-      </c>
-      <c r="E8" s="15">
-        <v>180</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="C12" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="16">
+      <c r="D12" s="9">
+        <v>240</v>
+      </c>
+      <c r="E12" s="9">
+        <v>320</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
         <v>4</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D13" s="9">
         <v>240</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E13" s="9">
         <v>320</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="16">
-        <v>4</v>
-      </c>
-      <c r="D10" s="16">
-        <v>240</v>
-      </c>
-      <c r="E10" s="16">
-        <v>320</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="16">
-        <v>4</v>
-      </c>
-      <c r="D11" s="16">
-        <v>240</v>
-      </c>
-      <c r="E11" s="16">
-        <v>320</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="16">
-        <v>4</v>
-      </c>
-      <c r="D12" s="16">
-        <v>240</v>
-      </c>
-      <c r="E12" s="16">
-        <v>320</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="16">
-        <v>4</v>
-      </c>
-      <c r="D13" s="16">
-        <v>240</v>
-      </c>
-      <c r="E13" s="16">
-        <v>320</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="17">
-        <v>8</v>
-      </c>
-      <c r="D14" s="17">
+      <c r="D14" s="10">
         <v>480</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="10">
         <v>600</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G16" s="1"/>

--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LATEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vsmods\mods\primitivesurvival\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9CD2E6-39AB-41F6-A7DD-9FFEC1887E11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A51BE4C-D61B-4D70-8316-BB405FCBF3E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4299A6D6-C790-4A43-9439-6D6512330405}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4299A6D6-C790-4A43-9439-6D6512330405}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -659,22 +659,22 @@
   <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="11" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="3.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="11" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
@@ -698,7 +698,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B3" s="16"/>
       <c r="C3" s="18"/>
       <c r="D3" s="11" t="s">
@@ -720,7 +720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -733,25 +733,25 @@
         <v>2</v>
       </c>
       <c r="I4" s="8">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J4" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K4" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E5" s="7">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="4" t="s">
@@ -770,12 +770,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="8">
         <v>120</v>
@@ -800,12 +800,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="8">
         <v>120</v>
@@ -819,12 +819,12 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="8">
         <v>120</v>
@@ -838,12 +838,12 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="9">
         <v>240</v>
@@ -857,12 +857,12 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="9">
         <v>240</v>
@@ -876,12 +876,12 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="9">
         <v>240</v>
@@ -895,12 +895,12 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="9">
         <v>240</v>
@@ -914,12 +914,12 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="9">
         <v>240</v>
@@ -933,12 +933,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D14" s="10">
         <v>480</v>
@@ -952,7 +952,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G16" s="1"/>
     </row>
   </sheetData>
